--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 8 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 9 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 9 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 10 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 10 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 11 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 11 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 12 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 12 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 13 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 13 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 14 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 14 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 15 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 15 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 16 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 17 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 18 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 18 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 19 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 20 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 21 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 21 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 22 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 22 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 23 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 23 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 24 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 24 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 25 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 25 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 26 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 26 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 27 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 27 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 28 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 28 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 29 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 29 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 30 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 30 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 31 January 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 31 January 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 1 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 1 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 2 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 2 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 3 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 3 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 4 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 4 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 5 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 5 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 6 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 6 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 7 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 7 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 8 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 8 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 9 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 9 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 10 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 10 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 11 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 11 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 12 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 12 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 13 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 13 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 14 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 14 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 15 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 15 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 16 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 17 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 18 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 18 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 19 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 19 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 20 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 20 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 21 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 21 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 22 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 22 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 23 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 23 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 24 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 24 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 25 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 25 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 26 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 26 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 27 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 27 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 28 February 2026]
 </t>
   </si>
   <si>

--- a/data/nomis_latest.xlsx
+++ b/data/nomis_latest.xlsx
@@ -228,7 +228,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 28 February 2026]
+    <t xml:space="preserve">ONS Crown Copyright Reserved [from Nomis on 1 March 2026]
 </t>
   </si>
   <si>
